--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W15_H50_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W15_H50_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5521472392638037</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+        <v>0.5531914893617021</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9890109890109891</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006802721088435374</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5501519756838906</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7086614173228347</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4559270516717325</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08912425652279748</v>
+        <v>0.08745961946708823</v>
       </c>
       <c r="J2" t="n">
-        <v>1185.435565796804</v>
+        <v>1162.913772519179</v>
       </c>
       <c r="K2" t="n">
-        <v>1983978.697424747</v>
+        <v>1869513.887194835</v>
       </c>
       <c r="L2" t="n">
-        <v>1408.53778700635</v>
+        <v>1367.30168112046</v>
       </c>
       <c r="M2" t="n">
-        <v>0.626968565947285</v>
+        <v>0.6484904564615632</v>
       </c>
     </row>
   </sheetData>
